--- a/01 - EDA & FIndings/EDA.xlsx
+++ b/01 - EDA & FIndings/EDA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skybe\Dropbox (Personal)\courses\MTech Knowledge engineering\KE 5107 - Data Mining Methodology &amp; Methods\workshops\Bayesian\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skybe\Dropbox (Personal)\courses\MTech Knowledge engineering\KE 5107 - Data Mining Methodology &amp; Methods\workshops\Bayesian\NaiveBayes\01 - EDA &amp; FIndings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7384C6-3F16-4CB5-8FE0-B3FCEBE4E20A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF96C70F-E3E4-42F5-B512-FCE29A2D767F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15945" xr2:uid="{1EF38A5C-2D9D-46B4-AD4C-B05902A9DF29}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="84">
   <si>
     <t>Mean</t>
   </si>
@@ -254,6 +254,33 @@
   </si>
   <si>
     <t>Sequence of action</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Count of OA_MAIS</t>
+  </si>
+  <si>
+    <t>s1_below_0</t>
+  </si>
+  <si>
+    <t>s2_0_1</t>
+  </si>
+  <si>
+    <t>s3_1_2</t>
+  </si>
+  <si>
+    <t>s4_2_3</t>
+  </si>
+  <si>
+    <t>s5_3_4</t>
+  </si>
+  <si>
+    <t>s6_4_5</t>
+  </si>
+  <si>
+    <t>s7_5_up</t>
   </si>
 </sst>
 </file>
@@ -788,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEDB381A-6882-4638-8CF1-DFCC835A9CAA}">
-  <dimension ref="B3:R45"/>
+  <dimension ref="B3:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27:L28"/>
+    <sheetView tabSelected="1" topLeftCell="M19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28:T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1393,7 +1420,7 @@
         <v>0.49083814886155974</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>12</v>
       </c>
@@ -1442,7 +1469,7 @@
         <v>0.49760458339507085</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B18">
         <v>13</v>
       </c>
@@ -1481,7 +1508,7 @@
         <v>12668</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B19">
         <v>14</v>
       </c>
@@ -1524,7 +1551,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B20">
         <v>15</v>
       </c>
@@ -1568,7 +1595,7 @@
         <v>3.8968736109053194E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B21">
         <v>16</v>
       </c>
@@ -1617,7 +1644,7 @@
         <v>0.58245666024596232</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B22">
         <v>17</v>
       </c>
@@ -1666,7 +1693,7 @@
         <v>0.15533165407220823</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.45">
       <c r="O23" t="s">
         <v>26</v>
       </c>
@@ -1678,7 +1705,7 @@
         <v>8.59880476119919E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.45">
       <c r="O24" t="s">
         <v>39</v>
       </c>
@@ -1690,10 +1717,10 @@
         <v>0.13725490196078433</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.45">
       <c r="Q25" s="2"/>
     </row>
-    <row r="26" spans="2:18" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:21" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="B26" s="20" t="s">
         <v>53</v>
       </c>
@@ -1707,7 +1734,7 @@
       <c r="L26" s="22"/>
       <c r="M26" s="22"/>
     </row>
-    <row r="27" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:21" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B27" s="9" t="s">
         <v>43</v>
       </c>
@@ -1752,8 +1779,14 @@
       <c r="R27" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="28" spans="2:18" s="10" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="T27" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="U27" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" s="10" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B28" s="10">
         <v>1</v>
       </c>
@@ -1795,8 +1828,14 @@
         <f>P28/$I$26</f>
         <v>0.6242429072362129</v>
       </c>
-    </row>
-    <row r="29" spans="2:18" s="10" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="T28" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="U28" s="10">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" s="10" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B29" s="10">
         <v>2</v>
       </c>
@@ -1840,8 +1879,14 @@
         <f t="shared" ref="Q29:Q30" si="2">P29/$I$26</f>
         <v>0.11675167357347785</v>
       </c>
-    </row>
-    <row r="30" spans="2:18" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="T29" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="U29" s="10">
+        <v>6181</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B30" s="10">
         <v>3</v>
       </c>
@@ -1885,8 +1930,14 @@
         <f t="shared" si="2"/>
         <v>0.25900541919030923</v>
       </c>
-    </row>
-    <row r="31" spans="2:18" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="T30" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="U30" s="10">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B31" s="10">
         <v>4</v>
       </c>
@@ -1920,8 +1971,14 @@
       </c>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
-    </row>
-    <row r="32" spans="2:18" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="T31" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="U31" s="10">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B32" s="10">
         <v>5</v>
       </c>
@@ -1964,8 +2021,14 @@
       <c r="Q32" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" s="10" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="T32" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="U32" s="10">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" s="10" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B33" s="10">
         <v>6</v>
       </c>
@@ -2009,8 +2072,14 @@
         <f t="shared" ref="Q33:Q34" si="3">P33/$I$26</f>
         <v>0.52725533949633407</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="T33" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="U33" s="10">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B34" s="10">
         <v>7</v>
       </c>
@@ -2054,8 +2123,14 @@
         <f t="shared" si="3"/>
         <v>0.47274466050366593</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" s="10" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="T34" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="U34" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" s="10" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B35" s="10">
         <v>8</v>
       </c>
@@ -2091,7 +2166,7 @@
       <c r="M35" s="11"/>
       <c r="Q35" s="16"/>
     </row>
-    <row r="36" spans="2:17" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:21" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B36" s="10">
         <v>9</v>
       </c>
@@ -2135,7 +2210,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="2:17" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:21" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B37" s="10">
         <v>10</v>
       </c>
@@ -2180,7 +2255,7 @@
         <v>0.50645521198597387</v>
       </c>
     </row>
-    <row r="38" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:21" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B38" s="10">
         <v>11</v>
       </c>
@@ -2225,7 +2300,7 @@
         <v>0.49354478801402613</v>
       </c>
     </row>
-    <row r="39" spans="2:17" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:21" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B39" s="10">
         <v>12</v>
       </c>
@@ -2260,7 +2335,7 @@
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
     </row>
-    <row r="40" spans="2:17" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:21" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B40" s="10">
         <v>13</v>
       </c>
@@ -2295,7 +2370,7 @@
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
     </row>
-    <row r="41" spans="2:17" s="10" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:21" s="10" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B41" s="10">
         <v>14</v>
       </c>
@@ -2339,7 +2414,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:17" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:21" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B42" s="10">
         <v>15</v>
       </c>
@@ -2384,7 +2459,7 @@
         <v>0.61643289767293596</v>
       </c>
     </row>
-    <row r="43" spans="2:17" s="10" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:21" s="10" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B43" s="10">
         <v>16</v>
       </c>
@@ -2429,7 +2504,7 @@
         <v>0.15022314313037935</v>
       </c>
     </row>
-    <row r="44" spans="2:17" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:21" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B44" s="10">
         <v>17</v>
       </c>
@@ -2474,7 +2549,7 @@
         <v>8.7264902773350334E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.45">
       <c r="O45" t="s">
         <v>39</v>
       </c>

--- a/01 - EDA & FIndings/EDA.xlsx
+++ b/01 - EDA & FIndings/EDA.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skybe\Dropbox (Personal)\courses\MTech Knowledge engineering\KE 5107 - Data Mining Methodology &amp; Methods\workshops\Bayesian\NaiveBayes\01 - EDA &amp; FIndings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF96C70F-E3E4-42F5-B512-FCE29A2D767F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC21DED7-614C-444C-8AB7-B29F24A4BD43}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15945" xr2:uid="{1EF38A5C-2D9D-46B4-AD4C-B05902A9DF29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$5:$K$5</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="84">
   <si>
     <t>Mean</t>
   </si>
@@ -360,12 +361,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -374,7 +390,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -430,6 +446,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -481,7 +503,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>369996</xdr:colOff>
+      <xdr:colOff>369995</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>243822</xdr:rowOff>
     </xdr:to>
@@ -817,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEDB381A-6882-4638-8CF1-DFCC835A9CAA}">
   <dimension ref="B3:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28:T34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -829,8 +851,8 @@
     <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.46484375" style="4" customWidth="1"/>
     <col min="12" max="12" width="13.796875" style="4" customWidth="1"/>
     <col min="13" max="13" width="10.9296875" style="4" customWidth="1"/>
     <col min="15" max="15" width="16.73046875" bestFit="1" customWidth="1"/>
@@ -2577,4 +2599,228 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC6E864-39B1-4E40-A5C9-8ACBDD421169}">
+  <dimension ref="D9:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="D9:J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="16.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.06640625" style="2"/>
+    <col min="7" max="7" width="7.06640625" customWidth="1"/>
+    <col min="8" max="8" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.06640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="D9" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="D10" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="25">
+        <v>12474</v>
+      </c>
+      <c r="F10" s="26">
+        <v>0.61609127278115272</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="25">
+        <v>9593</v>
+      </c>
+      <c r="J10" s="26">
+        <v>0.4737985874450536</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="D11" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="25">
+        <v>2542</v>
+      </c>
+      <c r="F11" s="26">
+        <v>0.12554946411814097</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="25">
+        <v>10654</v>
+      </c>
+      <c r="J11" s="26">
+        <v>0.52620141255494646</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="D12" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="25">
+        <v>5231</v>
+      </c>
+      <c r="F12" s="26">
+        <v>0.25835926310070628</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="26"/>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="26"/>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="D14" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="D15" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="27">
+        <v>234</v>
+      </c>
+      <c r="F15" s="28">
+        <v>1.1557267743369388E-2</v>
+      </c>
+      <c r="G15" s="25"/>
+      <c r="H15" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="27">
+        <v>789</v>
+      </c>
+      <c r="J15" s="28">
+        <v>3.8968736109053194E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="D16" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="25">
+        <v>9938</v>
+      </c>
+      <c r="F16" s="26">
+        <v>0.49083814886155974</v>
+      </c>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="25">
+        <v>11793</v>
+      </c>
+      <c r="J16" s="26">
+        <v>0.58245666024596232</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="D17" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="25">
+        <v>10075</v>
+      </c>
+      <c r="F17" s="26">
+        <v>0.49760458339507085</v>
+      </c>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="25">
+        <v>3145</v>
+      </c>
+      <c r="J17" s="26">
+        <v>0.15533165407220823</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="25">
+        <v>1741</v>
+      </c>
+      <c r="J18" s="26">
+        <v>8.59880476119919E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="25">
+        <v>2779</v>
+      </c>
+      <c r="J19" s="26">
+        <v>0.13725490196078433</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/01 - EDA & FIndings/EDA.xlsx
+++ b/01 - EDA & FIndings/EDA.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skybe\Dropbox (Personal)\courses\MTech Knowledge engineering\KE 5107 - Data Mining Methodology &amp; Methods\workshops\Bayesian\NaiveBayes\01 - EDA &amp; FIndings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC21DED7-614C-444C-8AB7-B29F24A4BD43}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431CECF7-5018-4309-970B-F417306EE42D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15945" xr2:uid="{1EF38A5C-2D9D-46B4-AD4C-B05902A9DF29}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15945" activeTab="2" xr2:uid="{1EF38A5C-2D9D-46B4-AD4C-B05902A9DF29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="3-vehicle safety impute" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$5:$K$5</definedName>
@@ -839,7 +840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEDB381A-6882-4638-8CF1-DFCC835A9CAA}">
   <dimension ref="B3:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -2277,7 +2278,7 @@
         <v>0.50645521198597387</v>
       </c>
     </row>
-    <row r="38" spans="2:21" s="10" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:21" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B38" s="10">
         <v>11</v>
       </c>
@@ -2823,4 +2824,25 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9136761-F804-47AE-8923-757F24D1E7CA}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B2">
+        <f>1 + 3.322*LOG(19000)</f>
+        <v>15.214019462365298</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>